--- a/src/main/resources/testfile/demo/demo.xlsx
+++ b/src/main/resources/testfile/demo/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9135"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>字符串标题</t>
   </si>
@@ -42,9 +42,18 @@
     <t>数字标题1</t>
   </si>
   <si>
+    <t>是否</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
     <t>字符串0</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>字符串1</t>
   </si>
   <si>
@@ -54,9 +63,6 @@
     <t>字符串3</t>
   </si>
   <si>
-    <t>uio</t>
-  </si>
-  <si>
     <t>字符串4</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
   </si>
   <si>
     <t>字符串9</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t>表2字符串0</t>
@@ -1076,20 +1085,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
     <col min="3" max="4" width="11.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,10 +1112,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>43831.0423726852</v>
@@ -1116,10 +1132,16 @@
       <c r="D2">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45355.5240162037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
         <v>43832.0423726852</v>
@@ -1130,10 +1152,16 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45355.5240162037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>43833.0423726852</v>
@@ -1144,10 +1172,16 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45355.5004050926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>43834.0423726852</v>
@@ -1155,13 +1189,16 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45355.5240162037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2">
         <v>43835.0423726852</v>
@@ -1172,10 +1209,16 @@
       <c r="D6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45355.501099537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>43836.0423726852</v>
@@ -1186,10 +1229,13 @@
       <c r="D7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" s="2">
+        <v>45355.5240162037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2">
         <v>43837.0423726852</v>
@@ -1200,10 +1246,13 @@
       <c r="D8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="F8" s="2">
+        <v>45355.5236111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2">
         <v>43838.0423726852</v>
@@ -1214,10 +1263,16 @@
       <c r="D9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45355.5240162037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2">
         <v>43839.0423726852</v>
@@ -1225,10 +1280,13 @@
       <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="F10" s="2">
+        <v>45355.3983217593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>43840.0423726852</v>
@@ -1238,6 +1296,12 @@
       </c>
       <c r="D11">
         <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45355.5240162037</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1335,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>43831.0423726852</v>
@@ -1282,7 +1346,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
         <v>43832.0423726852</v>
@@ -1293,7 +1357,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
         <v>43833.0423726852</v>
@@ -1304,7 +1368,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2">
         <v>43834.0423726852</v>
@@ -1315,7 +1379,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>43835.0423726852</v>
@@ -1326,7 +1390,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <v>43836.0423726852</v>
@@ -1337,7 +1401,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2">
         <v>43837.0423726852</v>
@@ -1348,7 +1412,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2">
         <v>43838.0423726852</v>
@@ -1359,7 +1423,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2">
         <v>43839.0423726852</v>
@@ -1370,7 +1434,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2">
         <v>43840.0423726852</v>

--- a/src/main/resources/testfile/demo/demo.xlsx
+++ b/src/main/resources/testfile/demo/demo.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>字符串标题</t>
   </si>
@@ -48,15 +48,24 @@
     <t>日期</t>
   </si>
   <si>
+    <t>用户</t>
+  </si>
+  <si>
     <t>字符串0</t>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
+    <t>xiaofang.wu1</t>
+  </si>
+  <si>
     <t>字符串1</t>
   </si>
   <si>
+    <t>xiaofang.wu2</t>
+  </si>
+  <si>
     <t>字符串2</t>
   </si>
   <si>
@@ -72,6 +81,9 @@
     <t>字符串6</t>
   </si>
   <si>
+    <t>xiaofang.wu3</t>
+  </si>
+  <si>
     <t>字符串7</t>
   </si>
   <si>
@@ -82,6 +94,9 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>xiaofang.wu10</t>
   </si>
   <si>
     <t>表2字符串0</t>
@@ -1085,21 +1100,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
     <col min="3" max="4" width="11.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="16"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,10 +1134,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>43831.0423726852</v>
@@ -1133,15 +1152,18 @@
         <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2">
         <v>45355.5240162037</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>43832.0423726852</v>
@@ -1153,15 +1175,18 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2">
         <v>45355.5240162037</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>43833.0423726852</v>
@@ -1173,15 +1198,18 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2">
         <v>45355.5004050926</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2">
         <v>43834.0423726852</v>
@@ -1195,10 +1223,13 @@
       <c r="F5" s="2">
         <v>45355.5240162037</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>43835.0423726852</v>
@@ -1210,15 +1241,18 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2">
         <v>45355.501099537</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>43836.0423726852</v>
@@ -1232,10 +1266,13 @@
       <c r="F7" s="2">
         <v>45355.5240162037</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>43837.0423726852</v>
@@ -1249,10 +1286,13 @@
       <c r="F8" s="2">
         <v>45355.5236111111</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>43838.0423726852</v>
@@ -1264,15 +1304,18 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2">
         <v>45355.5240162037</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>43839.0423726852</v>
@@ -1283,10 +1326,13 @@
       <c r="F10" s="2">
         <v>45355.3983217593</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>43840.0423726852</v>
@@ -1298,10 +1344,13 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2">
         <v>45355.5240162037</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1384,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>43831.0423726852</v>
@@ -1346,7 +1395,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2">
         <v>43832.0423726852</v>
@@ -1357,7 +1406,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2">
         <v>43833.0423726852</v>
@@ -1368,7 +1417,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2">
         <v>43834.0423726852</v>
@@ -1379,7 +1428,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2">
         <v>43835.0423726852</v>
@@ -1390,7 +1439,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2">
         <v>43836.0423726852</v>
@@ -1401,7 +1450,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
         <v>43837.0423726852</v>
@@ -1412,7 +1461,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2">
         <v>43838.0423726852</v>
@@ -1423,7 +1472,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2">
         <v>43839.0423726852</v>
@@ -1434,7 +1483,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2">
         <v>43840.0423726852</v>
